--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -93,16 +93,19 @@
     <t>ACTIVO</t>
   </si>
   <si>
+    <t>Cuenta Corriente</t>
+  </si>
+  <si>
+    <t>406-140100-05</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>creadoosp11</t>
+  </si>
+  <si>
     <t>Corriente</t>
-  </si>
-  <si>
-    <t>406-140100-01</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>creadoosp11</t>
   </si>
   <si>
     <t>406-101530-07</t>
@@ -172,8 +175,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -200,19 +203,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -221,7 +286,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,13 +296,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,92 +309,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,6 +322,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -377,19 +380,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,37 +536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,121 +548,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,65 +585,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,6 +613,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -683,152 +660,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -849,55 +852,55 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Título 3" xfId="1" builtinId="18"/>
+    <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
+    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moneda" xfId="5" builtinId="4"/>
+    <cellStyle name="Coma" xfId="6" builtinId="3"/>
+    <cellStyle name="Porcentaje" xfId="7" builtinId="5"/>
+    <cellStyle name="Hipervínculo" xfId="8" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21"/>
+    <cellStyle name="Nota" xfId="11" builtinId="10"/>
+    <cellStyle name="Título 2" xfId="12" builtinId="17"/>
+    <cellStyle name="Texto de advertencia" xfId="13" builtinId="11"/>
+    <cellStyle name="Título" xfId="14" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="15" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="16" builtinId="16"/>
+    <cellStyle name="Título 4" xfId="17" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="18" builtinId="20"/>
+    <cellStyle name="Cálculo" xfId="19" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="20" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="21" builtinId="24"/>
+    <cellStyle name="Total" xfId="22" builtinId="25"/>
+    <cellStyle name="Correcto" xfId="23" builtinId="26"/>
+    <cellStyle name="40% - Énfasis5" xfId="24" builtinId="47"/>
+    <cellStyle name="Incorrecto" xfId="25" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="26" builtinId="28"/>
+    <cellStyle name="20% - Énfasis5" xfId="27" builtinId="46"/>
+    <cellStyle name="Énfasis1" xfId="28" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="29" builtinId="30"/>
+    <cellStyle name="60% - Énfasis1" xfId="30" builtinId="32"/>
+    <cellStyle name="20% - Énfasis6" xfId="31" builtinId="50"/>
+    <cellStyle name="Énfasis2" xfId="32" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="33" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="34" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="35" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="36" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="37" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="38" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="39" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="42" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="43" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="44" builtinId="45"/>
+    <cellStyle name="60% - Énfasis5" xfId="45" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
+    <cellStyle name="Normal 2" xfId="48"/>
+    <cellStyle name="60% - Énfasis6" xfId="49" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1168,8 +1171,8 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
@@ -1308,10 +1311,10 @@
         <v>24</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1414,7 +1417,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -1441,10 +1444,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1506,16 +1509,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1523,50 +1526,50 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695"/>
+    <workbookView windowWidth="20490" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
-    <sheet name="Creditos" sheetId="3" r:id="rId2"/>
+    <sheet name="TarjetasCredito" sheetId="3" r:id="rId2"/>
     <sheet name="Listas" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -111,13 +111,13 @@
     <t>406-101530-07</t>
   </si>
   <si>
-    <t>zrediseño12</t>
-  </si>
-  <si>
-    <t>Prestamo Personal Ta;Prestamo Personal Ta</t>
-  </si>
-  <si>
-    <t>29281005510;29281023970</t>
+    <t>autouser21</t>
+  </si>
+  <si>
+    <t>Tarjetas de credito</t>
+  </si>
+  <si>
+    <t>*6926</t>
   </si>
   <si>
     <t>Orientacion</t>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Detalles</t>
-  </si>
-  <si>
-    <t>Tarjetas de credito</t>
   </si>
   <si>
     <t>Error</t>
@@ -173,8 +170,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -216,6 +213,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -226,67 +238,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,7 +300,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,31 +321,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,187 +377,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,16 +586,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -615,9 +612,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,15 +656,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,175 +677,158 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1171,8 +1168,8 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
@@ -1348,8 +1345,8 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
@@ -1532,44 +1529,44 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
         <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -114,28 +114,31 @@
     <t>autouser21</t>
   </si>
   <si>
+    <t>Personal American Express</t>
+  </si>
+  <si>
+    <t>*6926</t>
+  </si>
+  <si>
+    <t>Orientacion</t>
+  </si>
+  <si>
+    <t>Tipo Transaccion</t>
+  </si>
+  <si>
+    <t>Tipo Consulta</t>
+  </si>
+  <si>
+    <t>Consulta Detalle</t>
+  </si>
+  <si>
+    <t>Autenticacion</t>
+  </si>
+  <si>
+    <t>Detalles</t>
+  </si>
+  <si>
     <t>Tarjetas de credito</t>
-  </si>
-  <si>
-    <t>*6926</t>
-  </si>
-  <si>
-    <t>Orientacion</t>
-  </si>
-  <si>
-    <t>Tipo Transaccion</t>
-  </si>
-  <si>
-    <t>Tipo Consulta</t>
-  </si>
-  <si>
-    <t>Consulta Detalle</t>
-  </si>
-  <si>
-    <t>Autenticacion</t>
-  </si>
-  <si>
-    <t>Detalles</t>
   </si>
   <si>
     <t>Error</t>
@@ -200,6 +203,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -207,22 +217,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,9 +262,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,16 +308,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,28 +323,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -377,187 +380,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,26 +589,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,16 +634,40 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,112 +686,91 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,62 +779,59 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1357,6 +1360,7 @@
     <col min="10" max="10" width="22.125" customWidth="1"/>
     <col min="11" max="11" width="14.375" customWidth="1"/>
     <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1529,44 +1533,44 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -60,46 +60,49 @@
     <t>numeroCuenta</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>22483228</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
+    <t>userrobot2</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>4321</t>
+  </si>
+  <si>
+    <t>Acierto</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>0369</t>
+  </si>
+  <si>
+    <t>NO ERROR</t>
+  </si>
+  <si>
+    <t>bolp</t>
+  </si>
+  <si>
+    <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>Ahorros</t>
+  </si>
+  <si>
+    <t>406-732280-07</t>
+  </si>
+  <si>
     <t>1037655531</t>
-  </si>
-  <si>
-    <t>userqa10</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>4321</t>
-  </si>
-  <si>
-    <t>Acierto</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>0369</t>
-  </si>
-  <si>
-    <t>NO ERROR</t>
-  </si>
-  <si>
-    <t>bolp</t>
-  </si>
-  <si>
-    <t>ACTIVO</t>
-  </si>
-  <si>
-    <t>Cuenta Corriente</t>
-  </si>
-  <si>
-    <t>406-140100-05</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>creadoosp11</t>
@@ -173,8 +176,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -203,23 +206,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,70 +227,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,6 +266,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -325,27 +335,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -380,187 +383,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,50 +588,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,8 +625,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,152 +645,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -852,55 +855,55 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Título 3" xfId="1" builtinId="18"/>
-    <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
-    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Moneda" xfId="5" builtinId="4"/>
-    <cellStyle name="Coma" xfId="6" builtinId="3"/>
-    <cellStyle name="Porcentaje" xfId="7" builtinId="5"/>
-    <cellStyle name="Hipervínculo" xfId="8" builtinId="8"/>
-    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21"/>
-    <cellStyle name="Nota" xfId="11" builtinId="10"/>
-    <cellStyle name="Título 2" xfId="12" builtinId="17"/>
-    <cellStyle name="Texto de advertencia" xfId="13" builtinId="11"/>
-    <cellStyle name="Título" xfId="14" builtinId="15"/>
-    <cellStyle name="Texto explicativo" xfId="15" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="16" builtinId="16"/>
-    <cellStyle name="Título 4" xfId="17" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="18" builtinId="20"/>
-    <cellStyle name="Cálculo" xfId="19" builtinId="22"/>
-    <cellStyle name="Celda de comprobación" xfId="20" builtinId="23"/>
-    <cellStyle name="Celda vinculada" xfId="21" builtinId="24"/>
-    <cellStyle name="Total" xfId="22" builtinId="25"/>
-    <cellStyle name="Correcto" xfId="23" builtinId="26"/>
-    <cellStyle name="40% - Énfasis5" xfId="24" builtinId="47"/>
-    <cellStyle name="Incorrecto" xfId="25" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="26" builtinId="28"/>
-    <cellStyle name="20% - Énfasis5" xfId="27" builtinId="46"/>
-    <cellStyle name="Énfasis1" xfId="28" builtinId="29"/>
-    <cellStyle name="20% - Énfasis1" xfId="29" builtinId="30"/>
-    <cellStyle name="60% - Énfasis1" xfId="30" builtinId="32"/>
-    <cellStyle name="20% - Énfasis6" xfId="31" builtinId="50"/>
-    <cellStyle name="Énfasis2" xfId="32" builtinId="33"/>
-    <cellStyle name="20% - Énfasis2" xfId="33" builtinId="34"/>
-    <cellStyle name="40% - Énfasis2" xfId="34" builtinId="35"/>
-    <cellStyle name="60% - Énfasis2" xfId="35" builtinId="36"/>
-    <cellStyle name="Énfasis3" xfId="36" builtinId="37"/>
-    <cellStyle name="20% - Énfasis3" xfId="37" builtinId="38"/>
-    <cellStyle name="40% - Énfasis3" xfId="38" builtinId="39"/>
-    <cellStyle name="60% - Énfasis3" xfId="39" builtinId="40"/>
-    <cellStyle name="Énfasis4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Énfasis4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Énfasis4" xfId="42" builtinId="43"/>
-    <cellStyle name="60% - Énfasis4" xfId="43" builtinId="44"/>
-    <cellStyle name="Énfasis5" xfId="44" builtinId="45"/>
-    <cellStyle name="60% - Énfasis5" xfId="45" builtinId="48"/>
-    <cellStyle name="Énfasis6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
-    <cellStyle name="Normal 2" xfId="48"/>
-    <cellStyle name="60% - Énfasis6" xfId="49" builtinId="52"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="Normal 2" xfId="32"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1171,8 +1174,8 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
@@ -1237,84 +1240,84 @@
         <v>15</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="11" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1348,7 +1351,7 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -1409,46 +1412,46 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1510,67 +1513,67 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTOMATIZACION JAVA\PROYECTOS GRADLE\PROYECTOS NUEVA APP\AW1059001_APPSucursalVirtualPersonas_Test\APP_PERSONAS\src\test\resources\datadriven\consultas\movimientos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -65,58 +60,70 @@
     <t>numeroCuenta</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>automata87</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>4321</t>
+  </si>
+  <si>
+    <t>Acierto</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>0369</t>
+  </si>
+  <si>
+    <t>NO ERROR</t>
+  </si>
+  <si>
+    <t>bolp</t>
+  </si>
+  <si>
+    <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>Ahorros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">406-749870-13 </t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>4321</t>
-  </si>
-  <si>
-    <t>Acierto</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>0369</t>
-  </si>
-  <si>
-    <t>NO ERROR</t>
-  </si>
-  <si>
-    <t>bolp</t>
-  </si>
-  <si>
-    <t>ACTIVO</t>
-  </si>
-  <si>
-    <t>Ahorros</t>
-  </si>
-  <si>
     <t>1037655531</t>
   </si>
   <si>
-    <t>creadoosp11</t>
+    <t>automatiza12</t>
+  </si>
+  <si>
+    <t>6789</t>
+  </si>
+  <si>
+    <t>406-782800-08</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>Corriente</t>
   </si>
   <si>
-    <t>406-101530-07</t>
-  </si>
-  <si>
-    <t>autouser21</t>
+    <t>406-182800-02</t>
   </si>
   <si>
     <t>Personal American Express</t>
   </si>
   <si>
-    <t>*6926</t>
+    <t>*8410</t>
   </si>
   <si>
     <t>Orientacion</t>
@@ -165,22 +172,19 @@
   </si>
   <si>
     <t>Consultas</t>
-  </si>
-  <si>
-    <t>automata87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">406-749870-13 </t>
-  </si>
-  <si>
-    <t>*8182</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -204,14 +208,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,8 +384,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -260,12 +594,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -275,21 +851,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="Normal 2" xfId="32"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -547,22 +1167,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <cols>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="14" max="14" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -613,14 +1233,14 @@
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="3">
         <v>43024987</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>16</v>
@@ -650,24 +1270,24 @@
         <v>24</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>17</v>
@@ -691,13 +1311,215 @@
         <v>23</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14">
+      <c r="A4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="6" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="22.125" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
@@ -712,202 +1534,27 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
+      <formula1>Listas!$A$2:$A$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Listas!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:J4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="14.875" customWidth="1"/>
@@ -917,16 +1564,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -934,53 +1581,54 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695" activeTab="1"/>
+    <workbookView windowWidth="19890" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -66,7 +66,7 @@
     <t>1037655531</t>
   </si>
   <si>
-    <t>userqa10</t>
+    <t>pruebasusuario11</t>
   </si>
   <si>
     <t>1234</t>
@@ -93,10 +93,10 @@
     <t>ACTIVO</t>
   </si>
   <si>
-    <t>Cuenta Corriente</t>
-  </si>
-  <si>
-    <t>406-140100-05</t>
+    <t>Corriente</t>
+  </si>
+  <si>
+    <t>406-106940-01</t>
   </si>
   <si>
     <t>2</t>
@@ -105,9 +105,6 @@
     <t>creadoosp11</t>
   </si>
   <si>
-    <t>Corriente</t>
-  </si>
-  <si>
     <t>406-101530-07</t>
   </si>
   <si>
@@ -117,7 +114,7 @@
     <t>Personal American Express</t>
   </si>
   <si>
-    <t>*6926</t>
+    <t>*8810</t>
   </si>
   <si>
     <t>Orientacion</t>
@@ -173,10 +170,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -203,21 +200,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,70 +312,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,51 +349,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -380,19 +377,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,37 +509,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,121 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,11 +586,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,50 +648,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,166 +664,171 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1171,8 +1168,8 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
@@ -1311,10 +1308,10 @@
         <v>24</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1348,8 +1345,8 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
@@ -1418,7 +1415,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -1445,10 +1442,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1510,16 +1507,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1527,50 +1524,50 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
         <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20130" windowHeight="7425"/>
+    <workbookView windowWidth="20130" windowHeight="7425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>406-725210-11</t>
-  </si>
-  <si>
-    <t>autouser21</t>
   </si>
   <si>
     <t>Personal American Express</t>
@@ -199,20 +196,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -223,60 +206,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,6 +266,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -305,46 +281,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,19 +374,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,31 +470,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,127 +542,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,6 +583,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -597,30 +603,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,15 +631,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -669,6 +642,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,149 +683,149 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1168,7 +1165,7 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1345,7 +1342,7 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -1415,7 +1412,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -1442,10 +1439,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1507,16 +1504,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1524,50 +1521,50 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20130" windowHeight="7425" activeTab="1"/>
+    <workbookView windowWidth="20130" windowHeight="7425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
     <sheet name="TarjetasCredito" sheetId="3" r:id="rId2"/>
-    <sheet name="Listas" sheetId="2" r:id="rId3"/>
+    <sheet name="Inversiones" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -114,52 +114,13 @@
     <t>*8810</t>
   </si>
   <si>
-    <t>Orientacion</t>
-  </si>
-  <si>
-    <t>Tipo Transaccion</t>
-  </si>
-  <si>
-    <t>Tipo Consulta</t>
-  </si>
-  <si>
-    <t>Consulta Detalle</t>
-  </si>
-  <si>
-    <t>Autenticacion</t>
-  </si>
-  <si>
-    <t>Detalles</t>
-  </si>
-  <si>
-    <t>Tarjetas de credito</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Productos</t>
-  </si>
-  <si>
-    <t>Movimientos</t>
-  </si>
-  <si>
-    <t>Cuentas de deposito</t>
-  </si>
-  <si>
-    <t>Transferencias</t>
-  </si>
-  <si>
-    <t>e-Prepago</t>
-  </si>
-  <si>
-    <t>Pagos</t>
-  </si>
-  <si>
-    <t>Seguridad</t>
-  </si>
-  <si>
-    <t>Consultas</t>
+    <t>testing10</t>
+  </si>
+  <si>
+    <t>FIDURENTA</t>
+  </si>
+  <si>
+    <t>7001000033569</t>
   </si>
 </sst>
 </file>
@@ -167,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -196,6 +157,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -227,6 +209,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -243,9 +233,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,8 +255,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,58 +280,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,13 +335,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,19 +431,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,145 +497,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,6 +553,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -617,6 +593,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -627,36 +618,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,149 +644,149 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -835,11 +796,11 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
@@ -1216,10 +1177,10 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1248,7 +1209,7 @@
       <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -1292,7 +1253,7 @@
       <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -1312,23 +1273,23 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J2;G3:J3;G4:J4">
-      <formula1>Listas!$A$2:$A$3</formula1>
+      <formula1>Inversiones!$A$2:$A$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1342,8 +1303,8 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
@@ -1394,10 +1355,10 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1426,7 +1387,7 @@
       <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -1446,37 +1407,37 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
-      <formula1>Listas!$A$2:$A$3</formula1>
+      <formula1>Inversiones!$A$2:$A$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1488,13 +1449,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="14.875" customWidth="1"/>
@@ -1502,72 +1463,100 @@
     <col min="4" max="4" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="N2" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J2">
+      <formula1>Inversiones!$A$2:$A$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20130" windowHeight="7425" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -102,16 +102,25 @@
     <t>2</t>
   </si>
   <si>
+    <t>Adelanto</t>
+  </si>
+  <si>
+    <t>406-125210-02</t>
+  </si>
+  <si>
     <t>Ahorros</t>
   </si>
   <si>
     <t>406-725210-11</t>
   </si>
   <si>
-    <t>Personal American Express</t>
-  </si>
-  <si>
-    <t>*8810</t>
+    <t>Tarjeta de crédito</t>
+  </si>
+  <si>
+    <t>*6682</t>
+  </si>
+  <si>
+    <t>*7767</t>
   </si>
   <si>
     <t>testing10</t>
@@ -128,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -172,7 +181,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,32 +226,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,13 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -278,24 +281,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,187 +344,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,15 +553,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -564,6 +564,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,15 +633,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -641,40 +641,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -683,114 +692,114 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -799,9 +808,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
@@ -1126,8 +1133,8 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
@@ -1185,22 +1192,22 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1215,10 +1222,10 @@
       <c r="J2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -1229,22 +1236,22 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1259,10 +1266,10 @@
       <c r="J3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="10" t="s">
         <v>24</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -1270,15 +1277,223 @@
       </c>
       <c r="N3" s="3" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J2;G3:J3;G4:J4">
+      <formula1>Inversiones!$A$2:$A$3</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="6" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="22.125" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="7"/>
-      <c r="B4" s="9"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1298,160 +1513,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N4"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="$A1:$XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
-  <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
-      <formula1>Inversiones!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -1508,22 +1575,22 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1538,17 +1605,17 @@
       <c r="J2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruiz/Documents/ProyectosTODO1/bancolombia-app-personas-osp-tests-bdd-screen-play/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
     <sheet name="TarjetasCredito" sheetId="3" r:id="rId2"/>
     <sheet name="Inversiones" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -114,15 +124,6 @@
     <t>406-725210-11</t>
   </si>
   <si>
-    <t>Tarjeta de crédito</t>
-  </si>
-  <si>
-    <t>*6682</t>
-  </si>
-  <si>
-    <t>*7767</t>
-  </si>
-  <si>
     <t>testing10</t>
   </si>
   <si>
@@ -130,24 +131,37 @@
   </si>
   <si>
     <t>7001000033569</t>
+  </si>
+  <si>
+    <t>Personal American Express</t>
+  </si>
+  <si>
+    <t>*0702</t>
+  </si>
+  <si>
+    <t>*1277</t>
+  </si>
+  <si>
+    <t>pagotdc1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,159 +179,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,194 +205,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -552,318 +229,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Título 3" xfId="1" builtinId="18"/>
-    <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
-    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Moneda" xfId="5" builtinId="4"/>
-    <cellStyle name="Coma" xfId="6" builtinId="3"/>
-    <cellStyle name="Porcentaje" xfId="7" builtinId="5"/>
-    <cellStyle name="Hipervínculo" xfId="8" builtinId="8"/>
-    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21"/>
-    <cellStyle name="Nota" xfId="11" builtinId="10"/>
-    <cellStyle name="Título 2" xfId="12" builtinId="17"/>
-    <cellStyle name="Texto de advertencia" xfId="13" builtinId="11"/>
-    <cellStyle name="Título" xfId="14" builtinId="15"/>
-    <cellStyle name="Texto explicativo" xfId="15" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="16" builtinId="16"/>
-    <cellStyle name="Título 4" xfId="17" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="18" builtinId="20"/>
-    <cellStyle name="Cálculo" xfId="19" builtinId="22"/>
-    <cellStyle name="Celda de comprobación" xfId="20" builtinId="23"/>
-    <cellStyle name="Celda vinculada" xfId="21" builtinId="24"/>
-    <cellStyle name="Total" xfId="22" builtinId="25"/>
-    <cellStyle name="Correcto" xfId="23" builtinId="26"/>
-    <cellStyle name="40% - Énfasis5" xfId="24" builtinId="47"/>
-    <cellStyle name="Incorrecto" xfId="25" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="26" builtinId="28"/>
-    <cellStyle name="20% - Énfasis5" xfId="27" builtinId="46"/>
-    <cellStyle name="Énfasis1" xfId="28" builtinId="29"/>
-    <cellStyle name="20% - Énfasis1" xfId="29" builtinId="30"/>
-    <cellStyle name="60% - Énfasis1" xfId="30" builtinId="32"/>
-    <cellStyle name="20% - Énfasis6" xfId="31" builtinId="50"/>
-    <cellStyle name="Énfasis2" xfId="32" builtinId="33"/>
-    <cellStyle name="20% - Énfasis2" xfId="33" builtinId="34"/>
-    <cellStyle name="40% - Énfasis2" xfId="34" builtinId="35"/>
-    <cellStyle name="60% - Énfasis2" xfId="35" builtinId="36"/>
-    <cellStyle name="Énfasis3" xfId="36" builtinId="37"/>
-    <cellStyle name="20% - Énfasis3" xfId="37" builtinId="38"/>
-    <cellStyle name="40% - Énfasis3" xfId="38" builtinId="39"/>
-    <cellStyle name="60% - Énfasis3" xfId="39" builtinId="40"/>
-    <cellStyle name="Énfasis4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Énfasis4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Énfasis4" xfId="42" builtinId="43"/>
-    <cellStyle name="60% - Énfasis4" xfId="43" builtinId="44"/>
-    <cellStyle name="Énfasis5" xfId="44" builtinId="45"/>
-    <cellStyle name="60% - Énfasis5" xfId="45" builtinId="48"/>
-    <cellStyle name="Énfasis6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
-    <cellStyle name="Normal 2" xfId="48"/>
-    <cellStyle name="60% - Énfasis6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1125,29 +513,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
-  <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -1235,7 +613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
@@ -1279,7 +657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
@@ -1324,38 +702,21 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J2;G3:J3;G4:J4">
-      <formula1>Inversiones!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
-  <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1399,7 +760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -1410,7 +771,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>17</v>
@@ -1437,13 +798,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
@@ -1454,7 +815,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>17</v>
@@ -1481,13 +842,13 @@
         <v>24</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="7"/>
@@ -1502,35 +863,27 @@
       <c r="L4" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J2;G3:J3;G4:J4">
-      <formula1>Inversiones!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -1585,7 +938,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>17</v>
@@ -1612,19 +965,18 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J2">
-      <formula1>Inversiones!$A$2:$A$3</formula1>
+      <formula1>$A$2:$A$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
@@ -1,32 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruiz/Documents/ProyectosTODO1/bancolombia-app-personas-osp-tests-bdd-screen-play/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7700" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7695" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
     <sheet name="TarjetasCredito" sheetId="3" r:id="rId2"/>
     <sheet name="Inversiones" sheetId="2" r:id="rId3"/>
+    <sheet name="Eprepago" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -124,6 +115,18 @@
     <t>406-725210-11</t>
   </si>
   <si>
+    <t>pagotdc1</t>
+  </si>
+  <si>
+    <t>Personal American Express</t>
+  </si>
+  <si>
+    <t>*0702</t>
+  </si>
+  <si>
+    <t>*1277</t>
+  </si>
+  <si>
     <t>testing10</t>
   </si>
   <si>
@@ -133,35 +136,34 @@
     <t>7001000033569</t>
   </si>
   <si>
-    <t>Personal American Express</t>
-  </si>
-  <si>
-    <t>*0702</t>
-  </si>
-  <si>
-    <t>*1277</t>
-  </si>
-  <si>
-    <t>pagotdc1</t>
+    <t>93221453</t>
+  </si>
+  <si>
+    <t>autotest28</t>
+  </si>
+  <si>
+    <t>MasterCard</t>
+  </si>
+  <si>
+    <t>*5214</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,8 +181,159 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,8 +358,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -229,29 +568,318 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="Normal 2" xfId="32"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -513,19 +1141,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,14 +1192,14 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -594,7 +1224,7 @@
       <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -613,7 +1243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
@@ -638,7 +1268,7 @@
       <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -657,7 +1287,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
@@ -682,7 +1312,7 @@
       <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -703,20 +1333,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,14 +1385,14 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -771,7 +1403,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>17</v>
@@ -785,7 +1417,7 @@
       <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -798,13 +1430,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
@@ -815,7 +1447,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>17</v>
@@ -829,7 +1461,7 @@
       <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -842,48 +1474,50 @@
         <v>24</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+    <row r="4" spans="1:12">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="17.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -920,14 +1554,14 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -938,7 +1572,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>17</v>
@@ -952,7 +1586,7 @@
       <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -965,10 +1599,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -978,5 +1612,141 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruiz/Documents/ProyectosTODO1/bancolombia-app-personas-osp-tests-bdd-screen-play/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Daniel Torres Devco\todo1\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\consultas\movimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F3434F-608C-4AB5-8529-D38A9DCC3A9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7700" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -143,13 +144,16 @@
   </si>
   <si>
     <t>pagotdc1</t>
+  </si>
+  <si>
+    <t>RENTA FIJA PLAZO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -249,13 +253,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -518,14 +525,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -613,7 +620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
@@ -657,7 +664,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
@@ -707,16 +714,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,7 +767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -804,7 +811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
@@ -848,7 +855,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="7"/>
@@ -868,22 +875,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -927,7 +934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -969,11 +976,55 @@
       </c>
       <c r="N2" s="9" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="9">
+        <v>7001000003707</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J3" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$A$2:$A$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruiz/Documents/ProyectosTODO1/bancolombia-app-personas-osp-tests-bdd-screen-play/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -13,11 +18,16 @@
     <sheet name="Eprepago" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -124,9 +134,6 @@
     <t>*0702</t>
   </si>
   <si>
-    <t>*1277</t>
-  </si>
-  <si>
     <t>testing10</t>
   </si>
   <si>
@@ -146,24 +153,31 @@
   </si>
   <si>
     <t>*5214</t>
+  </si>
+  <si>
+    <t>Personal Visa</t>
+  </si>
+  <si>
+    <t>*8298</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,159 +195,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,194 +221,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -568,318 +245,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1141,21 +529,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -1243,7 +629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
@@ -1287,7 +673,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
@@ -1333,22 +719,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1392,7 +776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -1436,7 +820,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
@@ -1474,13 +858,13 @@
         <v>24</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
@@ -1496,28 +880,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="14.8333333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="17.8333333333333" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1561,7 +943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -1572,7 +954,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>17</v>
@@ -1599,10 +981,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1612,22 +994,20 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1671,18 +1051,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>17</v>
@@ -1709,13 +1089,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -1731,7 +1111,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
@@ -1747,6 +1127,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruiz/Documents/ProyectosTODO1/bancolombia-app-personas-osp-tests-bdd-screen-play/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7695" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -18,16 +13,11 @@
     <sheet name="Eprepago" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -125,7 +115,7 @@
     <t>406-725210-11</t>
   </si>
   <si>
-    <t>pagotdc1</t>
+    <t>zutarjeta7</t>
   </si>
   <si>
     <t>Personal American Express</t>
@@ -134,6 +124,9 @@
     <t>*0702</t>
   </si>
   <si>
+    <t>*9105</t>
+  </si>
+  <si>
     <t>testing10</t>
   </si>
   <si>
@@ -146,38 +139,28 @@
     <t>93221453</t>
   </si>
   <si>
-    <t>autotest28</t>
-  </si>
-  <si>
     <t>MasterCard</t>
   </si>
   <si>
-    <t>*5214</t>
-  </si>
-  <si>
-    <t>Personal Visa</t>
-  </si>
-  <si>
-    <t>*8298</t>
+    <t>*9344</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,8 +178,159 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,8 +355,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -245,29 +565,318 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="Normal 2" xfId="32"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -529,19 +1138,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +1196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -629,7 +1240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
@@ -673,7 +1284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
@@ -719,20 +1330,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +1389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -820,7 +1433,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
@@ -858,13 +1471,13 @@
         <v>24</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
@@ -880,26 +1493,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="17.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -943,7 +1558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -954,7 +1569,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>17</v>
@@ -981,10 +1596,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -994,20 +1609,22 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1051,18 +1668,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>17</v>
@@ -1095,7 +1712,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -1111,7 +1728,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
@@ -1127,5 +1744,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\OSP_NEW\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\consultas\movimientos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="Inversiones" sheetId="2" r:id="rId3"/>
     <sheet name="Eprepago" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -143,19 +148,19 @@
   </si>
   <si>
     <t>*9344</t>
+  </si>
+  <si>
+    <t>descripcionMovimientos</t>
+  </si>
+  <si>
+    <t>AHO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,158 +184,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,194 +216,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -565,254 +240,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -822,65 +255,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1138,19 +527,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
@@ -1330,20 +717,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
@@ -1477,7 +862,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
@@ -1493,25 +878,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="14.8333333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="17.8333333333333" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1609,22 +992,24 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="14" max="14" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1667,8 +1052,11 @@
       <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -1711,24 +1099,56 @@
       <c r="N2" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
@@ -1744,6 +1164,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -154,6 +154,24 @@
   </si>
   <si>
     <t>AHO</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>rangoBusquedaXfecha</t>
+  </si>
+  <si>
+    <t>12 Nov 2019 - 14 Nov 2019</t>
+  </si>
+  <si>
+    <t>700100</t>
+  </si>
+  <si>
+    <t>pruebasregistro48</t>
+  </si>
+  <si>
+    <t>*6136</t>
   </si>
 </sst>
 </file>
@@ -217,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -240,12 +258,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -257,6 +286,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -997,19 +1027,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
+    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1055,8 +1087,11 @@
       <c r="O1" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -1100,8 +1135,9 @@
         <v>41</v>
       </c>
       <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
@@ -1147,20 +1183,55 @@
       <c r="O3" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\OSP_NEW\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\consultas\movimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TODO1\OSP_NEW\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\consultas\movimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -141,9 +141,6 @@
     <t>7001000033569</t>
   </si>
   <si>
-    <t>93221453</t>
-  </si>
-  <si>
     <t>MasterCard</t>
   </si>
   <si>
@@ -172,6 +169,12 @@
   </si>
   <si>
     <t>*6136</t>
+  </si>
+  <si>
+    <t>22452521</t>
+  </si>
+  <si>
+    <t>*7848</t>
   </si>
 </sst>
 </file>
@@ -1029,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1085,10 +1088,10 @@
         <v>13</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1096,7 +1099,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>14</v>
@@ -1129,10 +1132,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -1142,7 +1145,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>14</v>
@@ -1175,28 +1178,28 @@
         <v>24</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="O3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>17</v>
@@ -1223,14 +1226,14 @@
         <v>24</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -126,21 +126,9 @@
     <t>Personal American Express</t>
   </si>
   <si>
-    <t>*0702</t>
-  </si>
-  <si>
     <t>*9105</t>
   </si>
   <si>
-    <t>testing10</t>
-  </si>
-  <si>
-    <t>FIDURENTA</t>
-  </si>
-  <si>
-    <t>7001000033569</t>
-  </si>
-  <si>
     <t>MasterCard</t>
   </si>
   <si>
@@ -175,6 +163,18 @@
   </si>
   <si>
     <t>*7848</t>
+  </si>
+  <si>
+    <t>0935000000538</t>
+  </si>
+  <si>
+    <t>fiducuenta</t>
+  </si>
+  <si>
+    <t>*1209</t>
+  </si>
+  <si>
+    <t>42003843</t>
   </si>
 </sst>
 </file>
@@ -201,14 +201,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -277,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -290,6 +290,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,11 +760,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="13" max="13" width="16.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
@@ -811,8 +817,8 @@
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>15</v>
+      <c r="B2" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>14</v>
@@ -847,16 +853,16 @@
       <c r="M2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>34</v>
+      <c r="N2" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>15</v>
+      <c r="B3" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>14</v>
@@ -892,7 +898,7 @@
         <v>33</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -918,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -928,6 +934,7 @@
     <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -978,14 +985,14 @@
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>15</v>
+      <c r="B2" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>36</v>
+      <c r="D2" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>17</v>
@@ -1011,11 +1018,11 @@
       <c r="L2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>38</v>
+      <c r="M2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1032,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1088,10 +1095,10 @@
         <v>13</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1099,7 +1106,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>14</v>
@@ -1132,10 +1139,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -1145,7 +1152,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>14</v>
@@ -1178,28 +1185,28 @@
         <v>24</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>17</v>
@@ -1226,14 +1233,14 @@
         <v>24</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -108,12 +108,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>Adelanto</t>
-  </si>
-  <si>
-    <t>406-125210-02</t>
-  </si>
-  <si>
     <t>Ahorros</t>
   </si>
   <si>
@@ -175,6 +169,9 @@
   </si>
   <si>
     <t>42003843</t>
+  </si>
+  <si>
+    <t>406-125210-03</t>
   </si>
 </sst>
 </file>
@@ -571,9 +568,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="14" max="14" width="13.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
@@ -701,15 +703,15 @@
         <v>24</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="9" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>15</v>
@@ -745,10 +747,10 @@
         <v>24</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -760,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -818,13 +820,13 @@
         <v>14</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>17</v>
@@ -851,10 +853,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -862,13 +864,13 @@
         <v>27</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>17</v>
@@ -895,10 +897,10 @@
         <v>24</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -986,7 +988,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>14</v>
@@ -1019,10 +1021,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1095,10 +1097,10 @@
         <v>13</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1106,7 +1108,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>14</v>
@@ -1139,10 +1141,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -1152,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>14</v>
@@ -1185,28 +1187,28 @@
         <v>24</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>17</v>
@@ -1233,14 +1235,14 @@
         <v>24</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -156,9 +156,6 @@
     <t>22452521</t>
   </si>
   <si>
-    <t>*7848</t>
-  </si>
-  <si>
     <t>0935000000538</t>
   </si>
   <si>
@@ -172,6 +169,12 @@
   </si>
   <si>
     <t>406-125210-03</t>
+  </si>
+  <si>
+    <t>*0252</t>
+  </si>
+  <si>
+    <t>pruebauser01</t>
   </si>
 </sst>
 </file>
@@ -568,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -706,7 +709,7 @@
         <v>25</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -820,7 +823,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>14</v>
@@ -856,7 +859,7 @@
         <v>31</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -864,7 +867,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>14</v>
@@ -1021,10 +1024,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1041,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1114,7 +1117,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>17</v>
@@ -1144,7 +1147,7 @@
         <v>33</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/movimientos/ConsultaMovimientos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TODO1\OSP_NEW\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\consultas\movimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosBCO\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\consultas\movimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26E33E0-C7B1-48C2-A615-F17886BE4F36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="3"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -171,16 +172,13 @@
     <t>406-125210-03</t>
   </si>
   <si>
-    <t>*0252</t>
-  </si>
-  <si>
-    <t>pruebauser01</t>
+    <t>*1826</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -296,7 +294,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -568,16 +566,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3"/>
   <cols>
-    <col min="14" max="14" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -762,16 +760,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3"/>
   <cols>
-    <col min="13" max="13" width="16.5" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -926,20 +924,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1032,7 +1030,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$A$2:$A$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -1041,18 +1039,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3"/>
   <cols>
-    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1117,7 +1115,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>17</v>
